--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/13_Bartın_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/13_Bartın_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B11EED0A-C416-409E-8EC1-660AB8FE2FB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FB648F92-23AA-46A3-BBE1-A2B8D2C218F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="688" xr2:uid="{9D1B0604-E8B9-4984-85BF-2F3936EEAFB9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="688" xr2:uid="{51DE886E-D5A5-41E6-8787-9D8B44BBAB87}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -1028,14 +1028,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{BC16C9E6-3377-45F3-87C4-13CCC20A287F}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{544E8140-CEFA-487B-A325-832B556314D9}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{663AF025-BE71-40B2-9E32-CC1C5D3B1948}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{144E6F87-A76C-4DF8-98B9-86979F61A558}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{3F0E2993-57A8-43D7-AD22-3D8302089DC2}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{9F811EA1-89AD-4F27-B18A-7AD8BFE0E53E}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{8AE399E0-BF3A-4ECD-B508-3F0C1D77068C}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{ACD95C40-7532-49FF-8D49-5E7A5325985F}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{6CFA1B46-858A-4C9E-ABD8-6C7C9AC760F5}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{3D7AC1EB-2D72-4DCB-9688-C56D0644E7C9}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{B0CD4C88-18E5-4939-8547-035A2BFB4695}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{121F59F5-25AB-44D8-9100-72B57FBA5F2D}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{250F8D92-506E-4B18-BAE1-81F1F4D09862}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{C04E1F75-F936-459A-84E3-B3AB155F635F}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{914E0178-EE3D-4CE3-8BE4-4BABA4FB3206}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{55715E63-637D-4544-BCA7-466A8BB3C2B3}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1405,7 +1405,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC33E27A-2824-44CC-8A47-FCF0CF3846BC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE4A8BF4-3D72-4044-A2E3-8E34B8C15AC5}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2663,17 +2663,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9E60CCF0-7026-4F4E-8FC7-554C1804148F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1FFC6E9D-3836-4D5A-A873-96CB5C7F002B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{36B56CFD-79AD-45A1-B851-BC92CAA2ACBE}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{12212A80-01BA-4ADC-865E-4BEE92196781}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{566EEB5E-8142-4620-9B48-0749280FCA95}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FC892ED8-8E3D-4A30-B353-A9A03889B7E0}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1E2E4FF5-0C78-4A87-B70F-1950312D2214}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CA812D15-7467-4401-BED5-781A5BA341A9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E24A462A-2DB6-48F9-881A-DFC932283A88}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{165FAED3-EDCA-4107-B2B9-FDD28A9DEC56}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B37F1D9A-B4BC-4943-9934-BD81F40478D0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{22CD6D3C-C100-4BB9-83B2-5B87FB229730}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B2E8A376-ABE6-498B-B4EA-DA5C7CA731FA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{537B0B4A-DE97-4574-89FA-A8FA488104D0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CECBD514-82CD-449F-ACBE-BFFA9C4F7209}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EE33C675-43FE-49E2-80CF-3BFD14302263}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CBA90E32-7A81-4A50-9EC0-CBE9F441B63D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A85FCE24-E93C-445B-9BE7-A555D2634A9B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{81A00515-9612-471B-B965-F4E0B155A5DA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{CF4FD2D5-BC95-4F71-A46E-D6A5DF86B0D3}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{02DB9A0E-32F4-4ECC-B24F-4C9D138D29AA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6E8206D7-0611-4EEE-AB14-EEFE1A61A371}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2686,7 +2686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA27096C-EB4A-412B-AC5D-6D21A4383DA3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B3CBE41-411C-4E95-9C57-6E9387207062}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3895,17 +3895,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D19C6C26-84FA-46AA-805F-4E6200EE571B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{170FD197-42D7-405F-88B7-E79742CB4463}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D81EA7D1-2DEB-4989-AEFC-5A6F339A99CC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1EA24C81-D2EA-4921-93D5-5B7D696C102E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5139F5C6-9709-4532-93CB-2800F8AA8EDC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{802A5E77-2D62-4E65-B9A3-6BFF3DF740D1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C5A5CD62-AC5C-4DB0-8223-EF47B90D6D8C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2B79B0CE-EC8A-4423-AE06-5DB7364F5F75}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{EDD1DC4C-430C-4425-939E-A5C1AAA869DC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{AD93D718-1C09-4243-8C63-34B7AD1265A1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9255F580-E3DA-4616-9B17-C70CB53ECD8E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DDE58F46-C9D4-42FC-A6A7-ADC2B6EC9969}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9EB68325-5254-4215-86C9-9DD7B7D4263A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4262F604-57AB-4C0C-8BC9-74911D39F54D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4C662B54-A63B-4C97-8BC9-1A35BA80C78B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2E7E4082-D47E-49B1-BA86-9CE8A4954365}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AA05C593-4AE5-4D51-B06F-FDFC9BDBCF60}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{414F2D25-945A-4427-B9B8-C9F252BD265C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F7A0B652-9335-4B07-A0E3-D245B8ADEF62}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E8B511C6-B5EE-467B-BFC3-EF0BD802BB70}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4F910A3C-7797-45FF-9A88-F574A79325CC}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9DA1447E-23B1-4C75-885C-5CB2628A8B08}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3918,7 +3918,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0791A396-0A28-4F8C-BFBD-D424734185E0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83BD6227-277F-4666-B8E6-BD07B7E65CD5}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5107,17 +5107,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E6B9CD77-0FB2-4282-9F7B-F4EE03785F70}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{21C1AF4C-7A66-416E-B089-422E92E6CDE5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C19D4AD2-8ADB-417B-871B-0F02A26EEB29}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B0386071-258A-471B-907B-2288ECCD7DF6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ADF29E14-5520-40C7-8215-2D96CA7E9565}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D28A28D9-0BBD-43DA-98DC-0C7D898EF4DA}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{12CFC503-FE88-41E2-983A-9D82840C5026}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B9272436-926B-4437-9B94-3214877CD16B}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C5A557EB-2B98-4994-98EE-C3596B65BC88}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F5C31C63-2B59-4416-9A34-DC9D3929BDFB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{52D571B6-D96A-4A97-B0C1-1DE2ED65D7C4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{531E9119-5D30-41A7-8AA4-753FC49BAFDE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{972BAFF4-07F5-4DBF-8103-99440D68E9BF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{22E1D4C5-2D0C-4156-885E-1AD8F48637AF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{94197DBB-5DFF-40C1-A18B-D990A001E31E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1E39D338-35C4-43E0-A56F-ABA205B94AB2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8D07DB95-1170-4519-8644-59A85EB9B1D6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7DA9B0BC-7B24-49A7-A164-456B435EEB5B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C5B5F784-158C-4B21-9074-49526F811A5B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F59398DF-D3A7-45F8-B628-225B4302D264}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9DF56485-9FA2-46F4-84AE-C6E5FB1DE2DE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1C054D89-717A-400C-BE0C-75E376C33013}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5130,7 +5130,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43490D19-18D7-4667-822E-F6D7F2041F2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CA085D7-47AF-45E2-BDCF-76D31BE03E64}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6319,17 +6319,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{334B7882-8F82-4EEE-867A-25D8DC3D3B1F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9DCC1672-8426-4017-B854-D886A15D83D1}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{853AE9E8-AA57-443C-9C5A-123BB2C295D8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BF0FAC03-3898-4DAB-9286-F3868132DE63}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{429AAFBB-C6FB-49DF-BDAC-5283B5528B07}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B17C29ED-5EA7-464F-ACF3-DB55FE201E4F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BAE40B78-0CBE-4283-BA5E-C781660A1CC0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F62B868E-2D30-4110-976B-697B8DBD23A1}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{EAA483C9-066A-4CB6-AA7E-D9671B698156}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{DAAB12D6-128A-48B1-A3AF-C2549CD88A5D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9F550A26-71C3-4810-B185-7BABD546C86A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{733B7409-3228-49DA-A100-479AF66ED00C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7B351917-B55C-428A-9C10-D847039E202C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{918B3B47-C7AE-43E1-A420-6849BC8471A4}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B936ECA6-A7E6-42AB-AC48-18B07BDC1175}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AD043411-32E2-4E34-AF4E-16B8D15D0ABA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{02A8B4CD-6F99-45FF-9D3F-D0CECC177D57}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E78C57FD-35E0-4668-9B39-69454BBD9FA4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F1B39AEB-A7C2-4610-B3BD-4FC9DA50296B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{399A85F4-7D72-4506-AB4D-0912957786D9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1EC7074A-DD9B-458E-AA20-44381BA1C4B3}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{979DBF33-4969-48CA-8A91-BDB879B344DA}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6342,7 +6342,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10A4E51-1DFA-4954-90F8-0C0A6AEA7D68}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE98E2EC-DA4B-43D5-B21B-95CA90EE1F84}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A43" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7565,17 +7565,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{967E22A8-5C65-44A7-AD78-566639AC162E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{00DE9C44-5ACB-4F55-930B-CBBCD9FDB1DF}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{48A2B005-C579-40E8-AF60-9FC26DA92958}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AFED888C-F536-4E32-BB19-26040C9ACAC3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D3600E50-857E-4FD5-AEFD-A179E33C7F92}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B4F89BFD-36F9-4AA9-B537-38CCBFFA308C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9D3FA714-7D52-490B-98AB-5A57F934B793}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0FE32D18-4232-45CC-9AFC-C12ACA2191F9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{DC256595-C0FC-4688-8D25-AF4ED395FB1E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E9586B7E-8668-400C-A39C-048F7F9FBD64}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F87E2641-BE9B-4FEF-9A05-C07B7153A1FB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B563B3A2-8CEA-4F3B-B8EE-6C728E8F2609}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{73F481CD-53EF-49E6-88E1-391545C1CFEF}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{27449E16-222A-4414-B033-481A4CB943DB}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0A2A0987-2621-4281-B328-5FF86B3EF73D}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7641026A-FED8-4709-9014-03B83C044D2A}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D8B03A9D-1F75-4636-8A5E-471AA7C00D6A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B14C0019-F5D6-4F2C-956C-29B97832EDAC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EAB524A9-32BC-4959-9491-11B729C14453}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{50D46D56-ED12-400C-BE2D-952E36E81EFD}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{92EFD8DE-6360-42FC-9F04-222A5BC7F394}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5E0ACC55-5DC1-4DD6-B9DD-4E4117788570}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7588,7 +7588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85C8BB53-FF00-4B6F-A290-96BFF260A636}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B512A4D-4419-4023-8FD3-AE7B4EA989AC}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8811,17 +8811,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6C6BFD7D-370C-4F9A-8702-940C92867515}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8869244E-FAC1-424C-8E4E-FFBEBD2F132B}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CA2AFBB1-3BCE-4D65-8510-899F64197948}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{41DB48AF-7731-4A8B-81B5-9154770F0B61}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8B5F69E7-1122-4AD6-80BC-F64FBC4D45B7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CC899EFF-A05B-46E7-9788-18AD98D6F297}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D8578B13-BD40-4DF5-B04C-B4ED3D93E1BF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AF26BFF3-BE20-417C-8648-8D81AF6DEB4C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{AEBF8331-D775-4E30-A8E0-05BEBDC8A6FD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{4E070957-E898-4CA8-95B4-BB73BEDD0B4D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{ECB078DB-89AC-4357-98E6-191A547B84F0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{419C278F-05B2-4117-BD42-4CE8662F97F9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1A5A983E-CD48-4E52-A3BD-27C13807D99B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E8500B56-0BEF-4C18-A194-F971568858AE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{872BD88E-1799-4FF3-A053-C3D2E669228C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{68304F28-04D2-4179-9167-24AC821AE244}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8945EE2F-4184-417A-AB89-C332BAE3A234}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EABA91DB-9B07-440F-98AC-21229489CC7B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B18F2E4C-7C2E-42D6-BBEE-21BAF9D68516}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{506F3411-414A-4827-AF94-4611DC11D31C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{306AC209-81BD-4D51-BFB3-C468FFD99011}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8587F3C6-67A2-4776-97AF-61729F0733EB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -8834,7 +8834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D2A2E2F-BE55-4109-B9AA-F8BACBCC710D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D78EDBE-483E-4970-B09B-C57282CD5EC8}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10049,17 +10049,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{37C4DC2A-8544-44FE-8584-B01A3CC6FEEE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9FF651E6-0FBB-4CA6-8FC7-0719B400F859}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{0A2A2F70-084D-41C2-ADDB-328B94D55098}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{618619E7-68D5-4DC2-BF91-61CD79B94ACD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{99D98FE7-B8D7-4CA5-A4E5-D3B557D2FE9E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4FD7D83B-F4C9-4B83-87ED-F5A8CD92BE68}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{674A7477-2EAF-4052-8809-03C23124D44D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F2AF93AA-E468-4207-B119-6A08D0C3698E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{BFF49EA9-48DC-4BF5-B172-93E16A3D6A75}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{D675F833-C265-4257-9003-10AD5CCD2D82}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0ACE2200-5755-4E64-A6EC-EA4B9339B1A0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1A1600AD-CE67-4788-8D40-C76672DBEF94}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{16BAF8BC-A0E4-4991-815E-25FC8F1E08BA}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{95BC4259-385F-4742-BDE3-AD51DDF21648}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{966E54C0-A958-407F-AC72-30E64E39C6EE}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0837CFEF-3BE3-4624-BDC8-3FDA4BB364C7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FACEA4E2-26DC-4619-93BC-138A19366C93}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{44DFBCAD-22BC-4923-BCEB-AB27463FEAEA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E8D3060E-92C0-43DE-8DA8-1509BFF11E50}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{12AF0C72-4113-42A2-845F-CD3B07FC8FB0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{1A0BB6EC-316A-4AFB-A27D-E6B29830DB35}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{000B4252-B9CC-4CCE-9609-D677990C4225}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10072,7 +10072,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFCC784E-B142-4E44-A3DB-BD3A795895AA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C154883F-21E0-46DB-A3B6-17A9109659E4}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11287,17 +11287,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ADAA75A9-519D-41AE-BCF3-3ED9377A1196}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4A666E0A-4E66-434D-9C96-99A45FF08388}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{541CBB97-AA4A-48DB-A681-73F560DD846D}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A0019E06-89D4-487E-9B0D-8E17E66A03C7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{277FBAAF-9A40-4BAC-9212-B85ED39AE36F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8460A592-13CA-4E6E-910E-239F8DA5CA7C}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{942256FA-0769-42A8-990C-B0649A5D7171}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{36CD67BF-2AA7-4C8F-9452-7DABE1EBC7F7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{594F7AB3-05F0-4D77-880E-F95DAEAC46E9}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{944A8E1F-F478-41CC-A7CA-7EB7ADD1E67E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9E2F36F6-4648-4EF0-8865-7FB8AEF1FD0B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{39374AE6-0FEB-4551-8424-C94DB0AD2D68}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5B934F21-7627-488E-9431-A29058AFFE8C}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{C7C36B35-B97C-4EC0-8586-BB37E4C53482}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CF0983A2-3533-4836-BE1E-8D5032B45190}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3DF0F0D6-D0CC-45C2-8543-2AF082FA60F8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CED12DC5-CF61-436D-B258-34C4DFCA66CF}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{9F733628-5E4A-40AF-9AEE-A6641F1A0979}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{726990A3-B8E9-4A6F-BBBC-477451F75DB9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6A90F722-069C-41A6-BE44-BBD15475728E}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{473F7DF9-061D-475A-BF49-7E9917C4C5AB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BB61AA0D-1364-4846-9689-609BC1EE99C7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11310,7 +11310,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{195E3763-6D35-4B6D-9AAD-DEEEC0922931}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AEA93DC-ECCA-4B1B-B2AD-C113939CD7CC}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -12525,17 +12525,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{82ABB52E-310A-474B-8B7B-9990D76D5DEA}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FCA6D6C2-8AB7-4307-9AA2-925782A7C580}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3F597F0F-30AA-4D1D-9903-15098A054E19}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F17A0736-B080-4458-AE05-A78DA95D01D9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5D4C7F72-6817-4746-9010-98AC6B2335B2}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{11777796-E3AE-4A64-811C-C5C30A10B988}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BCA19C33-61A5-4C7B-8036-42AEA4CF2ACB}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1635B8F1-4405-4169-BCAF-A52BFB8A4F09}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{A908A066-FDC0-496F-A35A-B817C1B3B295}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{0F4C2AA3-D101-417C-9E1F-456D798A50CA}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{DC307B9B-C93B-4D69-8736-FD06F3D5FA6A}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A5C698CC-3E0C-4B3A-986B-068E627279E5}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8D006264-3458-4AF4-ABC7-06F813A75EAE}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{3F4E8D8A-6A88-42A7-AEAD-38A63F84E5BC}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{A7E56298-704D-48BD-8EF6-5F76AB285D87}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B3E2EB90-088E-4072-8A0B-99215EC45CC1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F79F5040-7F65-4311-A5A5-0997B2454910}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1845D93C-DEFC-49E3-A808-8B81127F1143}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8EDE4B2B-1F48-4F4C-8E5C-08E50B1448C6}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{49A66014-9359-456D-AC17-C0A565EA8825}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3B4CE2EE-402E-42A3-B61A-6A14A5666A0A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{223002C7-965E-44DB-96F7-359D934877D5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12548,7 +12548,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBC3BFE1-4D24-4986-97CF-A2945F3D748A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDBBC2A-0268-4EB8-BF67-7A01D95E127B}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13763,17 +13763,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AAE55225-D50C-4CC8-B855-47A8D99A0FD5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C5877E44-6FC2-4232-B048-35300A5D09AC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{96237ACC-766C-4008-A8DB-3ED6151A04B6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{785D5EB6-C2F3-40CC-839A-437318F59995}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{9365F73F-00FC-4567-A95D-37C0B70F964D}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{20A33847-1DDC-44AD-AADC-95B5A22E27F3}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{461AF04F-438A-4413-96B4-B919A56882F6}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BF86501E-6C8B-4AF8-AD67-DA4EC0441BE8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{84628BD3-E642-48BB-8474-C15A1A9BF692}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{AF8117B9-C4DE-433F-89FF-33FE248236B1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{13ECEE2C-B1FB-4326-82C5-70C5D51F711C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6AEC81C5-6E37-42E8-9465-0EFEC7192F88}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{98125007-1CDA-4484-8C30-8E9DF2DDA709}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{8A9A5FD4-0B6F-4E68-85EC-B4D3418CA5CE}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B2626A95-8B1A-4F02-B975-BB007670C86A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B296B2E3-9D37-4AF2-A7C8-6B6BB86FB673}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{292CD0C7-1964-4372-A500-B7AB607B186A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C2EC9011-DFAB-4F22-AC07-5DD50B50160D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B9185C7B-831F-41C6-B351-0B0250879984}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2EBDBA7C-1B2E-44B0-98E9-8E65F48E1D95}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{73F23604-F4C9-481B-BA32-54CA086CFD0E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B590479B-B6B5-4075-90FE-DBB8F12F8C26}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13786,7 +13786,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD6C7600-97A5-4C72-BEA8-02A948AE70F0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59A82C7-0C6C-4CA6-878F-335C5C48BA80}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15001,17 +15001,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{23DEC922-E1EB-48D1-AF6A-4C1A40B769BC}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5FB85F16-1234-422A-9561-0E2B4940E8FC}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{CE46716B-A44F-4314-B1F4-8CAB58D86DE6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{968991D5-EBB0-4650-A980-A6B9588F31D9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{61EE50ED-3FD7-4DDF-AF05-12B637BC8735}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{02C04CC8-C5EB-4F44-BCEB-6BB7EB7965E5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{90A76776-13E7-44F1-A202-58BDDF7BBF4C}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{939F97B1-F6C1-42F1-AA1C-D071C6DD0743}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6DE59114-E656-4CEF-B7FA-B493667F5AB2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FF1AA81F-78FC-4117-9709-DFF4D24AB29C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4021061D-02F4-480C-91A0-65015C8982AD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D81463F9-D761-4C00-8C20-306CF0D1C90D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{10C31A38-5F2C-44F7-A0D3-9BDDCD9936A6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{2C369DDA-8F7B-4E44-AA9D-3C84D43E86BF}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{3D0EFD2F-9CF4-4AFE-8354-070F8AD41188}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EDAAFB14-CDEF-464F-8811-2F2FAF2C44C4}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5621DD52-8707-4B7A-9A26-C92CD86F35C3}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3139FC16-A931-425D-B8BE-748CD446A97B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{74A2FE70-A3F2-436F-8619-9EF6F697A1EE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{6B7822EF-6CBF-41EE-80F6-9C7BC2D3EC67}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{49A930E3-718A-442E-AF87-FB04F38C55FD}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B23F3059-646C-472E-A0E6-B783832832EC}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15024,7 +15024,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6FA981AF-A264-4EE2-A9DE-B79063669323}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A905F4-4293-4769-BA30-7D98CABBD3BE}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -16241,17 +16241,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{192DF0CF-2F87-4B8D-9B79-D9357FE1B195}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9A7F5322-EA1E-496A-B16E-02522AC74709}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{AC616745-CD08-456C-8DB2-5636D427BAD1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CBF77DBD-E2F8-42E3-AC6F-78BF72CE4A82}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{22F009B5-07C9-49AA-B28B-634809F45AEA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{BA0E3ABC-EF43-4F66-8108-B589DF10B8E9}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E77947F3-0631-4502-896C-E6562ECB96C8}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{72BE0A1D-9C2E-4CE5-8CCE-1915A2164209}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{93DB1C81-55B4-410F-82D4-03EB33F63CD6}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{F033E265-1546-4BC3-85DF-7A8A736C9BF9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8148AB4E-CE4C-4BF6-A075-810B833763BD}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DAE750B7-AA75-421B-AAE8-8616CA7245AC}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{316736CC-4BFC-4957-91E6-57B846A2AB0B}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{5A736238-BE66-407F-B494-67A62479CD6C}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{55634365-8F2D-4CF1-9C79-5F74B7CDB206}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{19A807FD-FA31-4112-9E28-CB2D0C9A9093}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EE546128-579C-4C0D-94FC-AAD273207C5E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1AFE1F3A-2D35-434B-A7E7-0ABD587385B0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5B7BCCDD-BE60-4354-869A-116604E3EA1D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D6D0EC3B-75D6-44E6-BE25-FA911439DEF0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2A1B2282-AE7A-4FBA-87A7-B738DD3D843E}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B12E044F-0E52-4075-80A7-23879E0DC775}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
